--- a/codes/tailledesClusters128.xlsx
+++ b/codes/tailledesClusters128.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,6 +133,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>128x128</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -159,10 +162,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0.62</c:v>
                 </c:pt>
@@ -216,69 +219,123 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.4700000000000011</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.4500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.4500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.4500000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>3.488</c:v>
+                  <c:v>2.12890625E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3979999999999997</c:v>
+                  <c:v>2.6843261718749998E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8150000000000004</c:v>
+                  <c:v>2.9388427734375002E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8010000000000002</c:v>
+                  <c:v>3.5406494140625001E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7240000000000002</c:v>
+                  <c:v>4.1040039062500001E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.41</c:v>
+                  <c:v>5.7434082031250001E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.743</c:v>
+                  <c:v>7.7777099609375002E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.571000000000002</c:v>
+                  <c:v>1.1945190429687501E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.483999999999995</c:v>
+                  <c:v>4.3020019531249997E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>336.51100000000002</c:v>
+                  <c:v>2.0539001464843751E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2424.1320000000001</c:v>
+                  <c:v>0.147957275390625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3859.3290000000002</c:v>
+                  <c:v>0.23555474853515626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5008.2759999999998</c:v>
+                  <c:v>0.30568090820312499</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5573.1310000000003</c:v>
+                  <c:v>0.34015692138671877</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5970.5609999999997</c:v>
+                  <c:v>0.36441412353515623</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6092.7389999999996</c:v>
+                  <c:v>0.37187127685546872</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6395.1750000000002</c:v>
+                  <c:v>0.39033050537109376</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6891.1220000000003</c:v>
+                  <c:v>0.42060070800781252</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.41161450195312499</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.54499713134765626</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65070709228515622</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66828747558593748</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.71022241210937498</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.74779724121093749</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.76109381103515628</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.77506085205078123</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.77672802734375002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -286,7 +343,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-62CC-4882-96E9-CDBD20172FFB}"/>
+              <c16:uniqueId val="{00000002-F470-4A04-B39F-8552B92C641E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1031,15 +1088,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:colOff>162157</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:colOff>466957</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41894</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1348,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1384,7 +1441,7 @@
         <v>4.3979999999999997</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C19" si="0">B3/(128*128)</f>
+        <f t="shared" ref="C3:C28" si="0">B3/(128*128)</f>
         <v>2.6843261718749998E-4</v>
       </c>
     </row>
@@ -1578,6 +1635,114 @@
       <c r="C19">
         <f t="shared" si="0"/>
         <v>0.42060070800781252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1.45</v>
+      </c>
+      <c r="B20">
+        <v>6743.8919999999998</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.41161450195312499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="B21">
+        <v>8929.2330000000002</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.54499713134765626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>3.45</v>
+      </c>
+      <c r="B22">
+        <v>10661.184999999999</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.65070709228515622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>4.4500000000000011</v>
+      </c>
+      <c r="B23">
+        <v>10949.222</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.66828747558593748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>5.4500000000000011</v>
+      </c>
+      <c r="B24">
+        <v>11636.284</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0.71022241210937498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>6.4500000000000011</v>
+      </c>
+      <c r="B25">
+        <v>12251.91</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0.74779724121093749</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>7.450000000000002</v>
+      </c>
+      <c r="B26">
+        <v>12469.761</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0.76109381103515628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>8.4500000000000011</v>
+      </c>
+      <c r="B27">
+        <v>12698.597</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0.77506085205078123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>9.4500000000000011</v>
+      </c>
+      <c r="B28">
+        <v>12725.912</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0.77672802734375002</v>
       </c>
     </row>
   </sheetData>
